--- a/Code/Results/Cases/Case_5_178/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_178/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.877304605554</v>
+        <v>16.4801006475809</v>
       </c>
       <c r="C2">
-        <v>11.32385605928643</v>
+        <v>7.950677712841479</v>
       </c>
       <c r="D2">
-        <v>4.862758458414668</v>
+        <v>8.186079208065745</v>
       </c>
       <c r="E2">
-        <v>7.312507515933659</v>
+        <v>12.59484330226064</v>
       </c>
       <c r="F2">
-        <v>22.99430473018705</v>
+        <v>34.55390627995832</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669784106</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
-        <v>15.39113986455884</v>
+        <v>25.51917288694314</v>
       </c>
       <c r="J2">
-        <v>5.839564143845857</v>
+        <v>9.809917668969984</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.884568292157361</v>
+        <v>11.31865242984808</v>
       </c>
       <c r="M2">
-        <v>12.18065973670533</v>
+        <v>16.43038510801663</v>
       </c>
       <c r="N2">
-        <v>12.69326959695277</v>
+        <v>18.95874407860837</v>
       </c>
       <c r="O2">
-        <v>17.117047784685</v>
+        <v>26.52238024649524</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.65543903531059</v>
+        <v>16.10954675742148</v>
       </c>
       <c r="C3">
-        <v>10.73251812093994</v>
+        <v>7.674397866030133</v>
       </c>
       <c r="D3">
-        <v>4.815831937284158</v>
+        <v>8.19101924888535</v>
       </c>
       <c r="E3">
-        <v>7.370418179504831</v>
+        <v>12.62125984151262</v>
       </c>
       <c r="F3">
-        <v>22.70549058600348</v>
+        <v>34.62114515603839</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
-        <v>15.51808860375281</v>
+        <v>25.61777460339776</v>
       </c>
       <c r="J3">
-        <v>5.878650554417424</v>
+        <v>9.82419855137138</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.785674411246302</v>
+        <v>11.32182694776376</v>
       </c>
       <c r="M3">
-        <v>11.67326084766715</v>
+        <v>16.35451260464971</v>
       </c>
       <c r="N3">
-        <v>12.84635522381537</v>
+        <v>19.01046269371206</v>
       </c>
       <c r="O3">
-        <v>16.98686758110452</v>
+        <v>26.58807750408752</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.87656406871849</v>
+        <v>15.8798783727734</v>
       </c>
       <c r="C4">
-        <v>10.35199545574047</v>
+        <v>7.498199367857321</v>
       </c>
       <c r="D4">
-        <v>4.788195216613093</v>
+        <v>8.19480378975701</v>
       </c>
       <c r="E4">
-        <v>7.407715529973541</v>
+        <v>12.63843509017439</v>
       </c>
       <c r="F4">
-        <v>22.54551488378782</v>
+        <v>34.67004136761499</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
-        <v>15.6078284883252</v>
+        <v>25.68294926579048</v>
       </c>
       <c r="J4">
-        <v>5.903403909300383</v>
+        <v>9.83342367168202</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.726550157173476</v>
+        <v>11.32500197788349</v>
       </c>
       <c r="M4">
-        <v>11.35367215107226</v>
+        <v>16.30979423943714</v>
       </c>
       <c r="N4">
-        <v>12.94358067918352</v>
+        <v>19.0439770176004</v>
       </c>
       <c r="O4">
-        <v>16.92073715150628</v>
+        <v>26.63396365734911</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.54920467815898</v>
+        <v>15.78587755075004</v>
       </c>
       <c r="C5">
-        <v>10.19262684793111</v>
+        <v>7.424814990294659</v>
       </c>
       <c r="D5">
-        <v>4.777234503255228</v>
+        <v>8.196535475916749</v>
       </c>
       <c r="E5">
-        <v>7.423351145058627</v>
+        <v>12.64567496706303</v>
       </c>
       <c r="F5">
-        <v>22.48463902334859</v>
+        <v>34.6918778680489</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
-        <v>15.64724384961441</v>
+        <v>25.71067273599407</v>
       </c>
       <c r="J5">
-        <v>5.913683678736763</v>
+        <v>9.837298127751929</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.702877444979853</v>
+        <v>11.32660501688435</v>
       </c>
       <c r="M5">
-        <v>11.22159554547085</v>
+        <v>16.29205349543285</v>
       </c>
       <c r="N5">
-        <v>12.98401400191764</v>
+        <v>19.05807767521958</v>
       </c>
       <c r="O5">
-        <v>16.89717375383015</v>
+        <v>26.65405526740354</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.49424845638594</v>
+        <v>15.77024799402679</v>
       </c>
       <c r="C6">
-        <v>10.16590674878394</v>
+        <v>7.412536150652832</v>
       </c>
       <c r="D6">
-        <v>4.77543285023966</v>
+        <v>8.196834478677484</v>
       </c>
       <c r="E6">
-        <v>7.425973776520999</v>
+        <v>12.64689170546511</v>
       </c>
       <c r="F6">
-        <v>22.47478958646557</v>
+        <v>34.69561911855071</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
-        <v>15.65395720836576</v>
+        <v>25.71534649604457</v>
       </c>
       <c r="J6">
-        <v>5.915402341917335</v>
+        <v>9.837948442357739</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.698972581917742</v>
+        <v>11.32688990068157</v>
       </c>
       <c r="M6">
-        <v>11.19955883469702</v>
+        <v>16.28913715210653</v>
       </c>
       <c r="N6">
-        <v>12.99077707459881</v>
+        <v>19.06044588280579</v>
       </c>
       <c r="O6">
-        <v>16.89346290485863</v>
+        <v>26.65747550108941</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.87218937990868</v>
+        <v>15.87861212487061</v>
       </c>
       <c r="C7">
-        <v>10.34986345240141</v>
+        <v>7.497215990915398</v>
       </c>
       <c r="D7">
-        <v>4.788046168776215</v>
+        <v>8.194826376097774</v>
       </c>
       <c r="E7">
-        <v>7.407924630428421</v>
+        <v>12.63853175381789</v>
       </c>
       <c r="F7">
-        <v>22.54467649174888</v>
+        <v>34.67032812949175</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
-        <v>15.60834869020874</v>
+        <v>25.68331844104791</v>
       </c>
       <c r="J7">
-        <v>5.903541762305842</v>
+        <v>9.833475457297922</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.726229169436566</v>
+        <v>11.32502234394193</v>
       </c>
       <c r="M7">
-        <v>11.35189812043965</v>
+        <v>16.30955301214829</v>
       </c>
       <c r="N7">
-        <v>12.94412268301526</v>
+        <v>19.04416538775334</v>
       </c>
       <c r="O7">
-        <v>16.92040577805062</v>
+        <v>26.6342289844665</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.45226428248972</v>
+        <v>16.35285609306536</v>
       </c>
       <c r="C8">
-        <v>11.12362585666438</v>
+        <v>7.856816696285309</v>
       </c>
       <c r="D8">
-        <v>4.846337568500333</v>
+        <v>8.187626914685131</v>
       </c>
       <c r="E8">
-        <v>7.332113399793311</v>
+        <v>12.60375378617608</v>
       </c>
       <c r="F8">
-        <v>22.8910935362239</v>
+        <v>34.57550884316527</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
-        <v>15.43239050497073</v>
+        <v>25.55220880344145</v>
       </c>
       <c r="J8">
-        <v>5.85288642318399</v>
+        <v>9.814747148099569</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.850149994588417</v>
+        <v>11.31949315226183</v>
       </c>
       <c r="M8">
-        <v>12.00747968698911</v>
+        <v>16.40384442269502</v>
       </c>
       <c r="N8">
-        <v>12.74538344148533</v>
+        <v>18.97621220899619</v>
       </c>
       <c r="O8">
-        <v>17.06924844950909</v>
+        <v>26.54387983664561</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.37265058501803</v>
+        <v>17.26034225288772</v>
       </c>
       <c r="C9">
-        <v>12.49989716638623</v>
+        <v>8.507319149653423</v>
       </c>
       <c r="D9">
-        <v>4.969716038668031</v>
+        <v>8.179446971072791</v>
       </c>
       <c r="E9">
-        <v>7.197300925282728</v>
+        <v>12.54310833109812</v>
       </c>
       <c r="F9">
-        <v>23.70971379457577</v>
+        <v>34.45007840577223</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
-        <v>15.18654129302839</v>
+        <v>25.33189331479685</v>
       </c>
       <c r="J9">
-        <v>5.759395611567992</v>
+        <v>9.781628826093421</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>7.104962282422391</v>
+        <v>11.31833466758912</v>
       </c>
       <c r="M9">
-        <v>13.22243649851628</v>
+        <v>16.60298794424179</v>
       </c>
       <c r="N9">
-        <v>12.3812743114267</v>
+        <v>18.85686616881368</v>
       </c>
       <c r="O9">
-        <v>17.47405095418602</v>
+        <v>26.41082466532656</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.30052895071612</v>
+        <v>17.90646053998318</v>
       </c>
       <c r="C10">
-        <v>13.42251991482334</v>
+        <v>8.948899688840683</v>
       </c>
       <c r="D10">
-        <v>5.065523130013229</v>
+        <v>8.177025507402112</v>
       </c>
       <c r="E10">
-        <v>7.106777865181781</v>
+        <v>12.50312027911539</v>
       </c>
       <c r="F10">
-        <v>24.3974641842522</v>
+        <v>34.39494853986352</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
-        <v>15.07451506263761</v>
+        <v>25.19249787620111</v>
       </c>
       <c r="J10">
-        <v>5.694066389415364</v>
+        <v>9.759474983064553</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>7.298206258589309</v>
+        <v>11.32332830699949</v>
       </c>
       <c r="M10">
-        <v>14.06438242186708</v>
+        <v>16.75717128931018</v>
       </c>
       <c r="N10">
-        <v>12.12941361074187</v>
+        <v>18.77759833899378</v>
       </c>
       <c r="O10">
-        <v>17.8444401657504</v>
+        <v>26.34009120552752</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.13036047107707</v>
+        <v>18.1945984240857</v>
       </c>
       <c r="C11">
-        <v>13.82274990977455</v>
+        <v>9.141381776478006</v>
       </c>
       <c r="D11">
-        <v>5.110148025607067</v>
+        <v>8.176695925054945</v>
       </c>
       <c r="E11">
-        <v>7.067470056575504</v>
+        <v>12.4859127872325</v>
       </c>
       <c r="F11">
-        <v>24.72918501788671</v>
+        <v>34.37792632886333</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
-        <v>15.04030762466854</v>
+        <v>25.13397197706396</v>
       </c>
       <c r="J11">
-        <v>5.665028571898179</v>
+        <v>9.749865078093846</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>7.387186701261063</v>
+        <v>11.32685538155571</v>
       </c>
       <c r="M11">
-        <v>14.43518099219328</v>
+        <v>16.82884198508048</v>
       </c>
       <c r="N11">
-        <v>12.01826268144209</v>
+        <v>18.74335132351011</v>
       </c>
       <c r="O11">
-        <v>18.029521056594</v>
+        <v>26.31380250129345</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.43788613838728</v>
+        <v>18.30277651075565</v>
       </c>
       <c r="C12">
-        <v>13.97149605287053</v>
+        <v>9.213026904177338</v>
       </c>
       <c r="D12">
-        <v>5.127189210657523</v>
+        <v>8.176681471940341</v>
       </c>
       <c r="E12">
-        <v>7.05285681414434</v>
+        <v>12.47953756306037</v>
       </c>
       <c r="F12">
-        <v>24.85750826510945</v>
+        <v>34.37263950004062</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
-        <v>15.02992405737409</v>
+        <v>25.11251322630933</v>
       </c>
       <c r="J12">
-        <v>5.654126587960322</v>
+        <v>9.746293014973666</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>7.421016079146467</v>
+        <v>11.3283702227124</v>
       </c>
       <c r="M12">
-        <v>14.57375854778177</v>
+        <v>16.85618625334682</v>
       </c>
       <c r="N12">
-        <v>11.97666938885128</v>
+        <v>18.73064250295626</v>
       </c>
       <c r="O12">
-        <v>18.10204200409089</v>
+        <v>26.30469574864021</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.37195243906118</v>
+        <v>18.27952148022231</v>
       </c>
       <c r="C13">
-        <v>13.9395860787171</v>
+        <v>9.197652685109849</v>
       </c>
       <c r="D13">
-        <v>5.123512850892537</v>
+        <v>8.176679687390875</v>
       </c>
       <c r="E13">
-        <v>7.0559919040221</v>
+        <v>12.48090432412451</v>
       </c>
       <c r="F13">
-        <v>24.82975123867955</v>
+        <v>34.373726558459</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
-        <v>15.03204342543965</v>
+        <v>25.11710343460724</v>
       </c>
       <c r="J13">
-        <v>5.656470408278675</v>
+        <v>9.747059347566656</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>7.413724644319336</v>
+        <v>11.3280360256435</v>
       </c>
       <c r="M13">
-        <v>14.54399615837818</v>
+        <v>16.85028835742246</v>
       </c>
       <c r="N13">
-        <v>11.98560503964638</v>
+        <v>18.73336803400679</v>
       </c>
       <c r="O13">
-        <v>18.0863143031659</v>
+        <v>26.30661930590374</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.15579493593707</v>
+        <v>18.20351756442657</v>
       </c>
       <c r="C14">
-        <v>13.83504374219983</v>
+        <v>9.147301180600175</v>
       </c>
       <c r="D14">
-        <v>5.111547194194319</v>
+        <v>8.176692528190257</v>
       </c>
       <c r="E14">
-        <v>7.066262353100431</v>
+        <v>12.48538547319092</v>
       </c>
       <c r="F14">
-        <v>24.73968801963766</v>
+        <v>34.37746814671706</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
-        <v>15.03940091525536</v>
+        <v>25.13219244205261</v>
       </c>
       <c r="J14">
-        <v>5.664129798040264</v>
+        <v>9.749569861236136</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>7.389967280740478</v>
+        <v>11.32697642450724</v>
       </c>
       <c r="M14">
-        <v>14.44661904984479</v>
+        <v>16.83108761695792</v>
       </c>
       <c r="N14">
-        <v>12.0148307777674</v>
+        <v>18.74230055947236</v>
       </c>
       <c r="O14">
-        <v>18.03543833788538</v>
+        <v>26.31303627643417</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.02252002489092</v>
+        <v>18.15683851540823</v>
       </c>
       <c r="C15">
-        <v>13.77064210604783</v>
+        <v>9.116296470203226</v>
       </c>
       <c r="D15">
-        <v>5.104236260494504</v>
+        <v>8.176714744893053</v>
       </c>
       <c r="E15">
-        <v>7.072588777413953</v>
+        <v>12.48814863790227</v>
       </c>
       <c r="F15">
-        <v>24.68487413213504</v>
+        <v>34.37991093535053</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
-        <v>15.04424714772565</v>
+        <v>25.14152657700893</v>
       </c>
       <c r="J15">
-        <v>5.668833519237864</v>
+        <v>9.751116339870778</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>7.375432142455073</v>
+        <v>11.32635068699895</v>
       </c>
       <c r="M15">
-        <v>14.38673155686778</v>
+        <v>16.81935270847461</v>
       </c>
       <c r="N15">
-        <v>12.03279730815803</v>
+        <v>18.74780579613981</v>
       </c>
       <c r="O15">
-        <v>18.00459379679944</v>
+        <v>26.31707735709649</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.24535421659886</v>
+        <v>17.88750479056151</v>
       </c>
       <c r="C16">
-        <v>13.39597083825541</v>
+        <v>8.936148371525205</v>
       </c>
       <c r="D16">
-        <v>5.062627140975568</v>
+        <v>8.177062524780695</v>
       </c>
       <c r="E16">
-        <v>7.109384600900761</v>
+        <v>12.50426457109216</v>
       </c>
       <c r="F16">
-        <v>24.37616469303708</v>
+        <v>34.39622316446749</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
-        <v>15.07710136263882</v>
+        <v>25.19642109529023</v>
       </c>
       <c r="J16">
-        <v>5.695977450154248</v>
+        <v>9.760112404650437</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>7.292411045641674</v>
+        <v>11.32312295612471</v>
       </c>
       <c r="M16">
-        <v>14.0398969932181</v>
+        <v>16.75251689257629</v>
       </c>
       <c r="N16">
-        <v>12.13674684190626</v>
+        <v>18.77987285923339</v>
       </c>
       <c r="O16">
-        <v>17.83268285636002</v>
+        <v>26.34192785465576</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.75655553643299</v>
+        <v>17.72072100722218</v>
       </c>
       <c r="C17">
-        <v>13.16112275140065</v>
+        <v>8.823455635402027</v>
       </c>
       <c r="D17">
-        <v>5.037363022664986</v>
+        <v>8.177473135347348</v>
       </c>
       <c r="E17">
-        <v>7.132438762859696</v>
+        <v>12.51440264656658</v>
       </c>
       <c r="F17">
-        <v>24.19161036366609</v>
+        <v>34.40829428570977</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
-        <v>15.10166022495187</v>
+        <v>25.23134929699854</v>
       </c>
       <c r="J17">
-        <v>5.71280103037067</v>
+        <v>9.765750850163951</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>7.241740636949865</v>
+        <v>11.32146348186074</v>
       </c>
       <c r="M17">
-        <v>13.82393647955763</v>
+        <v>16.71189624650027</v>
       </c>
       <c r="N17">
-        <v>12.20139607014491</v>
+        <v>18.80000854652756</v>
       </c>
       <c r="O17">
-        <v>17.73150686298005</v>
+        <v>26.35868210609473</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.47096731256569</v>
+        <v>17.62425252193902</v>
       </c>
       <c r="C18">
-        <v>13.02421128225892</v>
+        <v>8.75784941373068</v>
       </c>
       <c r="D18">
-        <v>5.022930246351759</v>
+        <v>8.177782008301348</v>
       </c>
       <c r="E18">
-        <v>7.145874889199937</v>
+        <v>12.52032638018668</v>
       </c>
       <c r="F18">
-        <v>24.08723539034712</v>
+        <v>34.41599560700465</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
-        <v>15.11735282376307</v>
+        <v>25.25189887726389</v>
       </c>
       <c r="J18">
-        <v>5.722541830361607</v>
+        <v>9.769038001849305</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>7.212698469990782</v>
+        <v>11.32062724749898</v>
       </c>
       <c r="M18">
-        <v>13.69857650261303</v>
+        <v>16.68867750408127</v>
       </c>
       <c r="N18">
-        <v>12.23890227643682</v>
+        <v>18.81176069349647</v>
       </c>
       <c r="O18">
-        <v>17.67487199104266</v>
+        <v>26.36887287222874</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.37350667881149</v>
+        <v>17.59150061982835</v>
       </c>
       <c r="C19">
-        <v>12.9775410852448</v>
+        <v>8.735502068244337</v>
       </c>
       <c r="D19">
-        <v>5.018060688259821</v>
+        <v>8.177899093270044</v>
       </c>
       <c r="E19">
-        <v>7.150454281600833</v>
+        <v>12.52234797118873</v>
       </c>
       <c r="F19">
-        <v>24.05220086598132</v>
+        <v>34.41873335903223</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
-        <v>15.12293038384004</v>
+        <v>25.25893554825377</v>
       </c>
       <c r="J19">
-        <v>5.725851060435923</v>
+        <v>9.770158552564002</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>7.202883449541391</v>
+        <v>11.3203644616865</v>
       </c>
       <c r="M19">
-        <v>13.65593778858322</v>
+        <v>16.68084145882094</v>
       </c>
       <c r="N19">
-        <v>12.25165635130078</v>
+        <v>18.81576910033511</v>
       </c>
       <c r="O19">
-        <v>17.65596253766827</v>
+        <v>26.37241841909717</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.80904844677347</v>
+        <v>17.73853195620808</v>
       </c>
       <c r="C20">
-        <v>13.18631255893096</v>
+        <v>8.835533839476808</v>
       </c>
       <c r="D20">
-        <v>5.040042291171616</v>
+        <v>8.177421905570984</v>
       </c>
       <c r="E20">
-        <v>7.129966376587165</v>
+        <v>12.51331385310953</v>
       </c>
       <c r="F20">
-        <v>24.2110727158661</v>
+        <v>34.40693080369515</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
-        <v>15.09888256571834</v>
+        <v>25.22758353404579</v>
       </c>
       <c r="J20">
-        <v>5.711003502030623</v>
+        <v>9.765146069408125</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>7.247124167171605</v>
+        <v>11.32162790647966</v>
       </c>
       <c r="M20">
-        <v>13.84704500131382</v>
+        <v>16.71620547424738</v>
       </c>
       <c r="N20">
-        <v>12.19448072463202</v>
+        <v>18.79784741450084</v>
       </c>
       <c r="O20">
-        <v>17.74211550615744</v>
+        <v>26.35684122193127</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.21946727262945</v>
+        <v>18.22586786433903</v>
       </c>
       <c r="C21">
-        <v>13.86582673422922</v>
+        <v>9.162124657036049</v>
       </c>
       <c r="D21">
-        <v>5.115057980379793</v>
+        <v>8.17668576693128</v>
       </c>
       <c r="E21">
-        <v>7.063238274459755</v>
+        <v>12.48406543172405</v>
       </c>
       <c r="F21">
-        <v>24.76606833606397</v>
+        <v>34.37633769188184</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
-        <v>15.03716878457094</v>
+        <v>25.12774132621182</v>
       </c>
       <c r="J21">
-        <v>5.661877530230297</v>
+        <v>9.748830646526793</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>7.396941899472388</v>
+        <v>11.32728280204658</v>
       </c>
       <c r="M21">
-        <v>14.47527145566024</v>
+        <v>16.83672192998529</v>
       </c>
       <c r="N21">
-        <v>12.00623292905128</v>
+        <v>18.73966981633939</v>
       </c>
       <c r="O21">
-        <v>18.05031539558801</v>
+        <v>26.31112842610538</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.10215983282131</v>
+        <v>18.53888713759104</v>
       </c>
       <c r="C22">
-        <v>14.2935370639015</v>
+        <v>9.368308050046318</v>
       </c>
       <c r="D22">
-        <v>5.164913718278323</v>
+        <v>8.176847556117599</v>
       </c>
       <c r="E22">
-        <v>7.02121320826754</v>
+        <v>12.46577081682503</v>
       </c>
       <c r="F22">
-        <v>25.14456869013015</v>
+        <v>34.3630993703077</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
-        <v>15.01189359954406</v>
+        <v>25.06659114075891</v>
       </c>
       <c r="J22">
-        <v>5.630316866238536</v>
+        <v>9.738557961955163</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>7.495631489195821</v>
+        <v>11.33202254374174</v>
       </c>
       <c r="M22">
-        <v>14.87512647374367</v>
+        <v>16.91666854816273</v>
       </c>
       <c r="N22">
-        <v>11.8861034190811</v>
+        <v>18.703161224362</v>
       </c>
       <c r="O22">
-        <v>18.26595313135665</v>
+        <v>26.28619696778142</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.63460410281176</v>
+        <v>18.37235620694562</v>
       </c>
       <c r="C23">
-        <v>14.06676145880094</v>
+        <v>9.258939427579241</v>
       </c>
       <c r="D23">
-        <v>5.138231247635871</v>
+        <v>8.176702603290984</v>
       </c>
       <c r="E23">
-        <v>7.043496717794081</v>
+        <v>12.47546005130764</v>
       </c>
       <c r="F23">
-        <v>24.94111451274232</v>
+        <v>34.36954669571043</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
-        <v>15.02395116076783</v>
+        <v>25.0988523803571</v>
       </c>
       <c r="J23">
-        <v>5.64711276424519</v>
+        <v>9.744005063996051</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>7.442894364440143</v>
+        <v>11.32939778642835</v>
       </c>
       <c r="M23">
-        <v>14.6627205440672</v>
+        <v>16.87389677606098</v>
       </c>
       <c r="N23">
-        <v>11.94995122739713</v>
+        <v>18.7225082999451</v>
       </c>
       <c r="O23">
-        <v>18.14954794768057</v>
+        <v>26.29905051954461</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.78533064597942</v>
+        <v>17.73048143197717</v>
       </c>
       <c r="C24">
-        <v>13.17493014589635</v>
+        <v>8.83007582748939</v>
       </c>
       <c r="D24">
-        <v>5.038830707084821</v>
+        <v>8.177444839728247</v>
       </c>
       <c r="E24">
-        <v>7.131083575783983</v>
+        <v>12.51380580000118</v>
       </c>
       <c r="F24">
-        <v>24.20226840452633</v>
+        <v>34.40754486202021</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
-        <v>15.10013345684878</v>
+        <v>25.22928457498141</v>
       </c>
       <c r="J24">
-        <v>5.711815950317479</v>
+        <v>9.765419348930147</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>7.244689994654728</v>
+        <v>11.32155320301719</v>
       </c>
       <c r="M24">
-        <v>13.83660137444918</v>
+        <v>16.7142568518581</v>
       </c>
       <c r="N24">
-        <v>12.19760609834083</v>
+        <v>18.79882391438779</v>
       </c>
       <c r="O24">
-        <v>17.73731456880774</v>
+        <v>26.35767174599766</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.62041413158534</v>
+        <v>17.01799005618277</v>
       </c>
       <c r="C25">
-        <v>12.14299470638029</v>
+        <v>8.337530140963628</v>
       </c>
       <c r="D25">
-        <v>4.935405127984092</v>
+        <v>8.181027323146065</v>
       </c>
       <c r="E25">
-        <v>7.232281102017151</v>
+        <v>12.55870966525313</v>
       </c>
       <c r="F25">
-        <v>23.4731580773299</v>
+        <v>34.47751659659484</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
-        <v>15.24161307592122</v>
+        <v>25.38755157784143</v>
       </c>
       <c r="J25">
-        <v>5.784082258373277</v>
+        <v>9.790204171981324</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>7.034885458334789</v>
+        <v>11.31761713263728</v>
       </c>
       <c r="M25">
-        <v>12.90218480772858</v>
+        <v>16.54767158026258</v>
       </c>
       <c r="N25">
-        <v>12.47703316286797</v>
+        <v>18.88766998463011</v>
       </c>
       <c r="O25">
-        <v>17.35199517770233</v>
+        <v>26.44208238668772</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_178/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_178/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.4801006475809</v>
+        <v>18.87730460555403</v>
       </c>
       <c r="C2">
-        <v>7.950677712841479</v>
+        <v>11.32385605928646</v>
       </c>
       <c r="D2">
-        <v>8.186079208065745</v>
+        <v>4.86275845841473</v>
       </c>
       <c r="E2">
-        <v>12.59484330226064</v>
+        <v>7.312507515933595</v>
       </c>
       <c r="F2">
-        <v>34.55390627995832</v>
+        <v>22.99430473018691</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669784106</v>
       </c>
       <c r="I2">
-        <v>25.51917288694314</v>
+        <v>15.39113986455868</v>
       </c>
       <c r="J2">
-        <v>9.809917668969984</v>
+        <v>5.839564143845824</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>11.31865242984808</v>
+        <v>6.884568292157371</v>
       </c>
       <c r="M2">
-        <v>16.43038510801663</v>
+        <v>12.1806597367053</v>
       </c>
       <c r="N2">
-        <v>18.95874407860837</v>
+        <v>12.69326959695267</v>
       </c>
       <c r="O2">
-        <v>26.52238024649524</v>
+        <v>17.11704778468487</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.10954675742148</v>
+        <v>17.6554390353106</v>
       </c>
       <c r="C3">
-        <v>7.674397866030133</v>
+        <v>10.73251812093993</v>
       </c>
       <c r="D3">
-        <v>8.19101924888535</v>
+        <v>4.815831937284046</v>
       </c>
       <c r="E3">
-        <v>12.62125984151262</v>
+        <v>7.370418179504701</v>
       </c>
       <c r="F3">
-        <v>34.62114515603839</v>
+        <v>22.70549058600357</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
-        <v>25.61777460339776</v>
+        <v>15.51808860375293</v>
       </c>
       <c r="J3">
-        <v>9.82419855137138</v>
+        <v>5.878650554417356</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>11.32182694776376</v>
+        <v>6.785674411246221</v>
       </c>
       <c r="M3">
-        <v>16.35451260464971</v>
+        <v>11.67326084766715</v>
       </c>
       <c r="N3">
-        <v>19.01046269371206</v>
+        <v>12.8463552238154</v>
       </c>
       <c r="O3">
-        <v>26.58807750408752</v>
+        <v>16.98686758110461</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.8798783727734</v>
+        <v>16.87656406871846</v>
       </c>
       <c r="C4">
-        <v>7.498199367857321</v>
+        <v>10.35199545574042</v>
       </c>
       <c r="D4">
-        <v>8.19480378975701</v>
+        <v>4.788195216613151</v>
       </c>
       <c r="E4">
-        <v>12.63843509017439</v>
+        <v>7.407715529973541</v>
       </c>
       <c r="F4">
-        <v>34.67004136761499</v>
+        <v>22.54551488378777</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
-        <v>25.68294926579048</v>
+        <v>15.60782848832517</v>
       </c>
       <c r="J4">
-        <v>9.83342367168202</v>
+        <v>5.903403909300383</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>11.32500197788349</v>
+        <v>6.726550157173482</v>
       </c>
       <c r="M4">
-        <v>16.30979423943714</v>
+        <v>11.35367215107226</v>
       </c>
       <c r="N4">
-        <v>19.0439770176004</v>
+        <v>12.94358067918349</v>
       </c>
       <c r="O4">
-        <v>26.63396365734911</v>
+        <v>16.92073715150626</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.78587755075004</v>
+        <v>16.54920467815898</v>
       </c>
       <c r="C5">
-        <v>7.424814990294659</v>
+        <v>10.19262684793119</v>
       </c>
       <c r="D5">
-        <v>8.196535475916749</v>
+        <v>4.777234503255165</v>
       </c>
       <c r="E5">
-        <v>12.64567496706303</v>
+        <v>7.423351145058558</v>
       </c>
       <c r="F5">
-        <v>34.6918778680489</v>
+        <v>22.48463902334854</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
-        <v>25.71067273599407</v>
+        <v>15.64724384961444</v>
       </c>
       <c r="J5">
-        <v>9.837298127751929</v>
+        <v>5.913683678736797</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>11.32660501688435</v>
+        <v>6.702877444979801</v>
       </c>
       <c r="M5">
-        <v>16.29205349543285</v>
+        <v>11.22159554547083</v>
       </c>
       <c r="N5">
-        <v>19.05807767521958</v>
+        <v>12.98401400191764</v>
       </c>
       <c r="O5">
-        <v>26.65405526740354</v>
+        <v>16.89717375383015</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.77024799402679</v>
+        <v>16.49424845638595</v>
       </c>
       <c r="C6">
-        <v>7.412536150652832</v>
+        <v>10.16590674878391</v>
       </c>
       <c r="D6">
-        <v>8.196834478677484</v>
+        <v>4.775432850239541</v>
       </c>
       <c r="E6">
-        <v>12.64689170546511</v>
+        <v>7.425973776521133</v>
       </c>
       <c r="F6">
-        <v>34.69561911855071</v>
+        <v>22.47478958646579</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
-        <v>25.71534649604457</v>
+        <v>15.65395720836602</v>
       </c>
       <c r="J6">
-        <v>9.837948442357739</v>
+        <v>5.9154023419174</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>11.32688990068157</v>
+        <v>6.698972581917729</v>
       </c>
       <c r="M6">
-        <v>16.28913715210653</v>
+        <v>11.1995588346971</v>
       </c>
       <c r="N6">
-        <v>19.06044588280579</v>
+        <v>12.99077707459895</v>
       </c>
       <c r="O6">
-        <v>26.65747550108941</v>
+        <v>16.89346290485886</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.87861212487061</v>
+        <v>16.87218937990867</v>
       </c>
       <c r="C7">
-        <v>7.497215990915398</v>
+        <v>10.34986345240151</v>
       </c>
       <c r="D7">
-        <v>8.194826376097774</v>
+        <v>4.788046168776219</v>
       </c>
       <c r="E7">
-        <v>12.63853175381789</v>
+        <v>7.407924630428359</v>
       </c>
       <c r="F7">
-        <v>34.67032812949175</v>
+        <v>22.54467649174881</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
-        <v>25.68331844104791</v>
+        <v>15.60834869020872</v>
       </c>
       <c r="J7">
-        <v>9.833475457297922</v>
+        <v>5.903541762305874</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>11.32502234394193</v>
+        <v>6.726229169436544</v>
       </c>
       <c r="M7">
-        <v>16.30955301214829</v>
+        <v>11.35189812043963</v>
       </c>
       <c r="N7">
-        <v>19.04416538775334</v>
+        <v>12.94412268301522</v>
       </c>
       <c r="O7">
-        <v>26.6342289844665</v>
+        <v>16.92040577805057</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.35285609306536</v>
+        <v>18.45226428248972</v>
       </c>
       <c r="C8">
-        <v>7.856816696285309</v>
+        <v>11.12362585666427</v>
       </c>
       <c r="D8">
-        <v>8.187626914685131</v>
+        <v>4.84633756850012</v>
       </c>
       <c r="E8">
-        <v>12.60375378617608</v>
+        <v>7.332113399793247</v>
       </c>
       <c r="F8">
-        <v>34.57550884316527</v>
+        <v>22.89109353622393</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
-        <v>25.55220880344145</v>
+        <v>15.43239050497083</v>
       </c>
       <c r="J8">
-        <v>9.814747148099569</v>
+        <v>5.852886423184057</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>11.31949315226183</v>
+        <v>6.850149994588414</v>
       </c>
       <c r="M8">
-        <v>16.40384442269502</v>
+        <v>12.00747968698912</v>
       </c>
       <c r="N8">
-        <v>18.97621220899619</v>
+        <v>12.74538344148536</v>
       </c>
       <c r="O8">
-        <v>26.54387983664561</v>
+        <v>17.06924844950922</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.26034225288772</v>
+        <v>21.37265058501808</v>
       </c>
       <c r="C9">
-        <v>8.507319149653423</v>
+        <v>12.49989716638635</v>
       </c>
       <c r="D9">
-        <v>8.179446971072791</v>
+        <v>4.969716038667912</v>
       </c>
       <c r="E9">
-        <v>12.54310833109812</v>
+        <v>7.197300925282731</v>
       </c>
       <c r="F9">
-        <v>34.45007840577223</v>
+        <v>23.70971379457564</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
-        <v>25.33189331479685</v>
+        <v>15.18654129302836</v>
       </c>
       <c r="J9">
-        <v>9.781628826093421</v>
+        <v>5.759395611568126</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>11.31833466758912</v>
+        <v>7.104962282422361</v>
       </c>
       <c r="M9">
-        <v>16.60298794424179</v>
+        <v>13.22243649851627</v>
       </c>
       <c r="N9">
-        <v>18.85686616881368</v>
+        <v>12.3812743114267</v>
       </c>
       <c r="O9">
-        <v>26.41082466532656</v>
+        <v>17.47405095418598</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.90646053998318</v>
+        <v>23.30052895071614</v>
       </c>
       <c r="C10">
-        <v>8.948899688840683</v>
+        <v>13.42251991482334</v>
       </c>
       <c r="D10">
-        <v>8.177025507402112</v>
+        <v>5.065523130013115</v>
       </c>
       <c r="E10">
-        <v>12.50312027911539</v>
+        <v>7.106777865181716</v>
       </c>
       <c r="F10">
-        <v>34.39494853986352</v>
+        <v>24.3974641842522</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
-        <v>25.19249787620111</v>
+        <v>15.07451506263767</v>
       </c>
       <c r="J10">
-        <v>9.759474983064553</v>
+        <v>5.694066389415364</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>11.32332830699949</v>
+        <v>7.29820625858927</v>
       </c>
       <c r="M10">
-        <v>16.75717128931018</v>
+        <v>14.06438242186707</v>
       </c>
       <c r="N10">
-        <v>18.77759833899378</v>
+        <v>12.1294136107419</v>
       </c>
       <c r="O10">
-        <v>26.34009120552752</v>
+        <v>17.84444016575042</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.1945984240857</v>
+        <v>24.13036047107712</v>
       </c>
       <c r="C11">
-        <v>9.141381776478006</v>
+        <v>13.82274990977445</v>
       </c>
       <c r="D11">
-        <v>8.176695925054945</v>
+        <v>5.110148025607046</v>
       </c>
       <c r="E11">
-        <v>12.4859127872325</v>
+        <v>7.067470056575504</v>
       </c>
       <c r="F11">
-        <v>34.37792632886333</v>
+        <v>24.7291850178867</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
-        <v>25.13397197706396</v>
+        <v>15.04030762466849</v>
       </c>
       <c r="J11">
-        <v>9.749865078093846</v>
+        <v>5.665028571898179</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>11.32685538155571</v>
+        <v>7.387186701261067</v>
       </c>
       <c r="M11">
-        <v>16.82884198508048</v>
+        <v>14.43518099219328</v>
       </c>
       <c r="N11">
-        <v>18.74335132351011</v>
+        <v>12.01826268144202</v>
       </c>
       <c r="O11">
-        <v>26.31380250129345</v>
+        <v>18.02952105659402</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.30277651075565</v>
+        <v>24.4378861383873</v>
       </c>
       <c r="C12">
-        <v>9.213026904177338</v>
+        <v>13.97149605287045</v>
       </c>
       <c r="D12">
-        <v>8.176681471940341</v>
+        <v>5.127189210657601</v>
       </c>
       <c r="E12">
-        <v>12.47953756306037</v>
+        <v>7.052856814144278</v>
       </c>
       <c r="F12">
-        <v>34.37263950004062</v>
+        <v>24.85750826510952</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
-        <v>25.11251322630933</v>
+        <v>15.02992405737415</v>
       </c>
       <c r="J12">
-        <v>9.746293014973666</v>
+        <v>5.654126587960254</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>11.3283702227124</v>
+        <v>7.421016079146474</v>
       </c>
       <c r="M12">
-        <v>16.85618625334682</v>
+        <v>14.57375854778178</v>
       </c>
       <c r="N12">
-        <v>18.73064250295626</v>
+        <v>11.97666938885131</v>
       </c>
       <c r="O12">
-        <v>26.30469574864021</v>
+        <v>18.10204200409095</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.27952148022231</v>
+        <v>24.37195243906116</v>
       </c>
       <c r="C13">
-        <v>9.197652685109849</v>
+        <v>13.93958607871716</v>
       </c>
       <c r="D13">
-        <v>8.176679687390875</v>
+        <v>5.123512850892548</v>
       </c>
       <c r="E13">
-        <v>12.48090432412451</v>
+        <v>7.055991904022103</v>
       </c>
       <c r="F13">
-        <v>34.373726558459</v>
+        <v>24.82975123867956</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
-        <v>25.11710343460724</v>
+        <v>15.0320434254397</v>
       </c>
       <c r="J13">
-        <v>9.747059347566656</v>
+        <v>5.656470408278675</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>11.3280360256435</v>
+        <v>7.413724644319301</v>
       </c>
       <c r="M13">
-        <v>16.85028835742246</v>
+        <v>14.54399615837819</v>
       </c>
       <c r="N13">
-        <v>18.73336803400679</v>
+        <v>11.98560503964638</v>
       </c>
       <c r="O13">
-        <v>26.30661930590374</v>
+        <v>18.08631430316591</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.20351756442657</v>
+        <v>24.15579493593712</v>
       </c>
       <c r="C14">
-        <v>9.147301180600175</v>
+        <v>13.83504374219967</v>
       </c>
       <c r="D14">
-        <v>8.176692528190257</v>
+        <v>5.111547194194331</v>
       </c>
       <c r="E14">
-        <v>12.48538547319092</v>
+        <v>7.066262353100369</v>
       </c>
       <c r="F14">
-        <v>34.37746814671706</v>
+        <v>24.7396880196376</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
-        <v>25.13219244205261</v>
+        <v>15.03940091525524</v>
       </c>
       <c r="J14">
-        <v>9.749569861236136</v>
+        <v>5.664129798040199</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>11.32697642450724</v>
+        <v>7.389967280740454</v>
       </c>
       <c r="M14">
-        <v>16.83108761695792</v>
+        <v>14.44661904984478</v>
       </c>
       <c r="N14">
-        <v>18.74230055947236</v>
+        <v>12.01483077776733</v>
       </c>
       <c r="O14">
-        <v>26.31303627643417</v>
+        <v>18.03543833788531</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.15683851540823</v>
+        <v>24.02252002489092</v>
       </c>
       <c r="C15">
-        <v>9.116296470203226</v>
+        <v>13.77064210604782</v>
       </c>
       <c r="D15">
-        <v>8.176714744893053</v>
+        <v>5.104236260494362</v>
       </c>
       <c r="E15">
-        <v>12.48814863790227</v>
+        <v>7.072588777413949</v>
       </c>
       <c r="F15">
-        <v>34.37991093535053</v>
+        <v>24.68487413213503</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
-        <v>25.14152657700893</v>
+        <v>15.04424714772572</v>
       </c>
       <c r="J15">
-        <v>9.751116339870778</v>
+        <v>5.668833519237967</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>11.32635068699895</v>
+        <v>7.37543214245509</v>
       </c>
       <c r="M15">
-        <v>16.81935270847461</v>
+        <v>14.38673155686778</v>
       </c>
       <c r="N15">
-        <v>18.74780579613981</v>
+        <v>12.0327973081581</v>
       </c>
       <c r="O15">
-        <v>26.31707735709649</v>
+        <v>18.00459379679948</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.88750479056151</v>
+        <v>23.24535421659887</v>
       </c>
       <c r="C16">
-        <v>8.936148371525205</v>
+        <v>13.39597083825532</v>
       </c>
       <c r="D16">
-        <v>8.177062524780695</v>
+        <v>5.062627140975708</v>
       </c>
       <c r="E16">
-        <v>12.50426457109216</v>
+        <v>7.109384600900828</v>
       </c>
       <c r="F16">
-        <v>34.39622316446749</v>
+        <v>24.37616469303725</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
-        <v>25.19642109529023</v>
+        <v>15.07710136263893</v>
       </c>
       <c r="J16">
-        <v>9.760112404650437</v>
+        <v>5.695977450154248</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>11.32312295612471</v>
+        <v>7.292411045641689</v>
       </c>
       <c r="M16">
-        <v>16.75251689257629</v>
+        <v>14.03989699321813</v>
       </c>
       <c r="N16">
-        <v>18.77987285923339</v>
+        <v>12.13674684190626</v>
       </c>
       <c r="O16">
-        <v>26.34192785465576</v>
+        <v>17.83268285636015</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.72072100722218</v>
+        <v>22.75655553643299</v>
       </c>
       <c r="C17">
-        <v>8.823455635402027</v>
+        <v>13.16112275140063</v>
       </c>
       <c r="D17">
-        <v>8.177473135347348</v>
+        <v>5.037363022665037</v>
       </c>
       <c r="E17">
-        <v>12.51440264656658</v>
+        <v>7.132438762859696</v>
       </c>
       <c r="F17">
-        <v>34.40829428570977</v>
+        <v>24.19161036366611</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
-        <v>25.23134929699854</v>
+        <v>15.10166022495187</v>
       </c>
       <c r="J17">
-        <v>9.765750850163951</v>
+        <v>5.712801030370603</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>11.32146348186074</v>
+        <v>7.241740636949865</v>
       </c>
       <c r="M17">
-        <v>16.71189624650027</v>
+        <v>13.82393647955763</v>
       </c>
       <c r="N17">
-        <v>18.80000854652756</v>
+        <v>12.20139607014491</v>
       </c>
       <c r="O17">
-        <v>26.35868210609473</v>
+        <v>17.73150686298004</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.62425252193902</v>
+        <v>22.4709673125657</v>
       </c>
       <c r="C18">
-        <v>8.75784941373068</v>
+        <v>13.02421128225913</v>
       </c>
       <c r="D18">
-        <v>8.177782008301348</v>
+        <v>5.022930246351764</v>
       </c>
       <c r="E18">
-        <v>12.52032638018668</v>
+        <v>7.145874889199868</v>
       </c>
       <c r="F18">
-        <v>34.41599560700465</v>
+        <v>24.08723539034703</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
-        <v>25.25189887726389</v>
+        <v>15.11735282376299</v>
       </c>
       <c r="J18">
-        <v>9.769038001849305</v>
+        <v>5.722541830361506</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>11.32062724749898</v>
+        <v>7.212698469990715</v>
       </c>
       <c r="M18">
-        <v>16.68867750408127</v>
+        <v>13.698576502613</v>
       </c>
       <c r="N18">
-        <v>18.81176069349647</v>
+        <v>12.23890227643679</v>
       </c>
       <c r="O18">
-        <v>26.36887287222874</v>
+        <v>17.67487199104259</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.59150061982835</v>
+        <v>22.37350667881152</v>
       </c>
       <c r="C19">
-        <v>8.735502068244337</v>
+        <v>12.97754108524487</v>
       </c>
       <c r="D19">
-        <v>8.177899093270044</v>
+        <v>5.018060688259855</v>
       </c>
       <c r="E19">
-        <v>12.52234797118873</v>
+        <v>7.150454281600766</v>
       </c>
       <c r="F19">
-        <v>34.41873335903223</v>
+        <v>24.05220086598118</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
-        <v>25.25893554825377</v>
+        <v>15.12293038383993</v>
       </c>
       <c r="J19">
-        <v>9.770158552564002</v>
+        <v>5.725851060435889</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>11.3203644616865</v>
+        <v>7.202883449541369</v>
       </c>
       <c r="M19">
-        <v>16.68084145882094</v>
+        <v>13.65593778858317</v>
       </c>
       <c r="N19">
-        <v>18.81576910033511</v>
+        <v>12.25165635130068</v>
       </c>
       <c r="O19">
-        <v>26.37241841909717</v>
+        <v>17.65596253766812</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.73853195620808</v>
+        <v>22.80904844677346</v>
       </c>
       <c r="C20">
-        <v>8.835533839476808</v>
+        <v>13.18631255893087</v>
       </c>
       <c r="D20">
-        <v>8.177421905570984</v>
+        <v>5.04004229117147</v>
       </c>
       <c r="E20">
-        <v>12.51331385310953</v>
+        <v>7.129966376587101</v>
       </c>
       <c r="F20">
-        <v>34.40693080369515</v>
+        <v>24.21107271586613</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
-        <v>25.22758353404579</v>
+        <v>15.09888256571839</v>
       </c>
       <c r="J20">
-        <v>9.765146069408125</v>
+        <v>5.711003502030655</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>11.32162790647966</v>
+        <v>7.247124167171588</v>
       </c>
       <c r="M20">
-        <v>16.71620547424738</v>
+        <v>13.84704500131383</v>
       </c>
       <c r="N20">
-        <v>18.79784741450084</v>
+        <v>12.19448072463202</v>
       </c>
       <c r="O20">
-        <v>26.35684122193127</v>
+        <v>17.74211550615751</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.22586786433903</v>
+        <v>24.21946727262943</v>
       </c>
       <c r="C21">
-        <v>9.162124657036049</v>
+        <v>13.86582673422908</v>
       </c>
       <c r="D21">
-        <v>8.17668576693128</v>
+        <v>5.115057980379737</v>
       </c>
       <c r="E21">
-        <v>12.48406543172405</v>
+        <v>7.063238274459827</v>
       </c>
       <c r="F21">
-        <v>34.37633769188184</v>
+        <v>24.76606833606407</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
-        <v>25.12774132621182</v>
+        <v>15.03716878457103</v>
       </c>
       <c r="J21">
-        <v>9.748830646526793</v>
+        <v>5.661877530230364</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>11.32728280204658</v>
+        <v>7.396941899472412</v>
       </c>
       <c r="M21">
-        <v>16.83672192998529</v>
+        <v>14.47527145566027</v>
       </c>
       <c r="N21">
-        <v>18.73966981633939</v>
+        <v>12.0062329290513</v>
       </c>
       <c r="O21">
-        <v>26.31112842610538</v>
+        <v>18.0503153955881</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.53888713759104</v>
+        <v>25.10215983282131</v>
       </c>
       <c r="C22">
-        <v>9.368308050046318</v>
+        <v>14.2935370639013</v>
       </c>
       <c r="D22">
-        <v>8.176847556117599</v>
+        <v>5.164913718278053</v>
       </c>
       <c r="E22">
-        <v>12.46577081682503</v>
+        <v>7.02121320826754</v>
       </c>
       <c r="F22">
-        <v>34.3630993703077</v>
+        <v>25.14456869013004</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
-        <v>25.06659114075891</v>
+        <v>15.01189359954399</v>
       </c>
       <c r="J22">
-        <v>9.738557961955163</v>
+        <v>5.630316866238703</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>11.33202254374174</v>
+        <v>7.495631489195905</v>
       </c>
       <c r="M22">
-        <v>16.91666854816273</v>
+        <v>14.87512647374368</v>
       </c>
       <c r="N22">
-        <v>18.703161224362</v>
+        <v>11.886103419081</v>
       </c>
       <c r="O22">
-        <v>26.28619696778142</v>
+        <v>18.26595313135665</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.37235620694562</v>
+        <v>24.63460410281178</v>
       </c>
       <c r="C23">
-        <v>9.258939427579241</v>
+        <v>14.06676145880077</v>
       </c>
       <c r="D23">
-        <v>8.176702603290984</v>
+        <v>5.138231247635739</v>
       </c>
       <c r="E23">
-        <v>12.47546005130764</v>
+        <v>7.04349671779389</v>
       </c>
       <c r="F23">
-        <v>34.36954669571043</v>
+        <v>24.94111451274225</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
-        <v>25.0988523803571</v>
+        <v>15.02395116076773</v>
       </c>
       <c r="J23">
-        <v>9.744005063996051</v>
+        <v>5.647112764245157</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>11.32939778642835</v>
+        <v>7.442894364440125</v>
       </c>
       <c r="M23">
-        <v>16.87389677606098</v>
+        <v>14.66272054406717</v>
       </c>
       <c r="N23">
-        <v>18.7225082999451</v>
+        <v>11.94995122739709</v>
       </c>
       <c r="O23">
-        <v>26.29905051954461</v>
+        <v>18.14954794768057</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.73048143197717</v>
+        <v>22.78533064597946</v>
       </c>
       <c r="C24">
-        <v>8.83007582748939</v>
+        <v>13.17493014589624</v>
       </c>
       <c r="D24">
-        <v>8.177444839728247</v>
+        <v>5.038830707084738</v>
       </c>
       <c r="E24">
-        <v>12.51380580000118</v>
+        <v>7.131083575783926</v>
       </c>
       <c r="F24">
-        <v>34.40754486202021</v>
+        <v>24.20226840452626</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
-        <v>25.22928457498141</v>
+        <v>15.1001334568487</v>
       </c>
       <c r="J24">
-        <v>9.765419348930147</v>
+        <v>5.711815950317479</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>11.32155320301719</v>
+        <v>7.244689994654749</v>
       </c>
       <c r="M24">
-        <v>16.7142568518581</v>
+        <v>13.83660137444918</v>
       </c>
       <c r="N24">
-        <v>18.79882391438779</v>
+        <v>12.19760609834073</v>
       </c>
       <c r="O24">
-        <v>26.35767174599766</v>
+        <v>17.7373145688077</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.01799005618277</v>
+        <v>20.62041413158538</v>
       </c>
       <c r="C25">
-        <v>8.337530140963628</v>
+        <v>12.14299470638026</v>
       </c>
       <c r="D25">
-        <v>8.181027323146065</v>
+        <v>4.935405127984096</v>
       </c>
       <c r="E25">
-        <v>12.55870966525313</v>
+        <v>7.232281102017217</v>
       </c>
       <c r="F25">
-        <v>34.47751659659484</v>
+        <v>23.47315807732994</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
-        <v>25.38755157784143</v>
+        <v>15.24161307592124</v>
       </c>
       <c r="J25">
-        <v>9.790204171981324</v>
+        <v>5.784082258373378</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>11.31761713263728</v>
+        <v>7.034885458334831</v>
       </c>
       <c r="M25">
-        <v>16.54767158026258</v>
+        <v>12.90218480772859</v>
       </c>
       <c r="N25">
-        <v>18.88766998463011</v>
+        <v>12.477033162868</v>
       </c>
       <c r="O25">
-        <v>26.44208238668772</v>
+        <v>17.35199517770236</v>
       </c>
     </row>
   </sheetData>
